--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_9_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_9_5.xlsx
@@ -478,187 +478,187 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_0</t>
+          <t>model_9_5_15</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8297657266190072</v>
+        <v>0.3181864250442316</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9195661166528961</v>
+        <v>-5.385459092091416</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8805219636038398</v>
+        <v>-9.965869020741707</v>
       </c>
       <c r="E2" t="n">
-        <v>0.904566081956685</v>
+        <v>-5.641234792697979</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1883991658687592</v>
+        <v>0.7545667290687561</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1332690119743347</v>
+        <v>3.276276350021362</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1480196714401245</v>
+        <v>1.125577807426453</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1402097940444946</v>
+        <v>2.264182806015015</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_1</t>
+          <t>model_9_5_14</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8345203227247761</v>
+        <v>0.3237448945144689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.918332444045692</v>
+        <v>-5.358385167768293</v>
       </c>
       <c r="D3" t="n">
-        <v>0.879477894716706</v>
+        <v>-9.494124839821637</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9034145277310963</v>
+        <v>-5.552826791523208</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1831372529268265</v>
+        <v>0.7484151124954224</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1353130638599396</v>
+        <v>3.262385129928589</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1493131518363953</v>
+        <v>1.077156186103821</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1419016420841217</v>
+        <v>2.234042167663574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_2</t>
+          <t>model_9_5_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8385350895236225</v>
+        <v>0.3275596642755311</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9149948189394693</v>
+        <v>-5.066721920817161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8781200874860664</v>
+        <v>-6.067598059185451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9008830747320846</v>
+        <v>-4.834986072110578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1786940842866898</v>
+        <v>0.7441933751106262</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1408430933952332</v>
+        <v>3.11273717880249</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1509953141212463</v>
+        <v>0.7254446744918823</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1456208080053329</v>
+        <v>1.989310264587402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_3</t>
+          <t>model_9_5_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.84269608685488</v>
+        <v>0.3301499107982354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9132280715809082</v>
+        <v>-5.119203733155033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8771794357650092</v>
+        <v>-6.533314358227815</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8994549591868108</v>
+        <v>-4.942761274265118</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1740890741348267</v>
+        <v>0.7413267493247986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1437703818082809</v>
+        <v>3.139664888381958</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1521606743335724</v>
+        <v>0.7732476592063904</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1477189660072327</v>
+        <v>2.026053667068481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_4</t>
+          <t>model_9_5_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8468005363798522</v>
+        <v>0.3305864189624703</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9120779091964597</v>
+        <v>-5.126005703492311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8763093380395611</v>
+        <v>-6.392124381268157</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8984231780386256</v>
+        <v>-4.92817507050974</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1695466786623001</v>
+        <v>0.7408435940742493</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1456760615110397</v>
+        <v>3.143155097961426</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1532386243343353</v>
+        <v>0.7587553262710571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1492348462343216</v>
+        <v>2.02108097076416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_5</t>
+          <t>model_9_5_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.850667632579688</v>
+        <v>0.3357459676562601</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9109036843401443</v>
+        <v>-4.574886877664952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8750558052842005</v>
+        <v>-0.6073238864879684</v>
       </c>
       <c r="E7" t="n">
-        <v>0.897225187087485</v>
+        <v>-3.669489199776073</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1652669161558151</v>
+        <v>0.7351335287094116</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1476216018199921</v>
+        <v>2.860384941101074</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1547916084527969</v>
+        <v>0.1649817526340485</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1509949117898941</v>
+        <v>1.591959714889526</v>
       </c>
     </row>
     <row r="8">
@@ -668,400 +668,400 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8542150782341309</v>
+        <v>0.3391451015595981</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9091177950540598</v>
+        <v>-4.93245670338013</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8737958462473778</v>
+        <v>-5.716425630903401</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8956586395995532</v>
+        <v>-4.678270097284195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1613409519195557</v>
+        <v>0.7313717007637024</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1505805999040604</v>
+        <v>3.043848037719727</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1563525646924973</v>
+        <v>0.6893990635871887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1532964557409286</v>
+        <v>1.93588125705719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_7</t>
+          <t>model_9_5_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8572695983210811</v>
+        <v>0.3508486290661413</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9060531000493318</v>
+        <v>-4.827297573378698</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8723302787021614</v>
+        <v>-6.169697745946088</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8932466704689552</v>
+        <v>-4.65864822322721</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1579604893922806</v>
+        <v>0.7184192538261414</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1556584239006042</v>
+        <v>2.989892482757568</v>
       </c>
       <c r="H9" t="n">
-        <v>0.158168226480484</v>
+        <v>0.7359246015548706</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1568400859832764</v>
+        <v>1.929191589355469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_8</t>
+          <t>model_9_5_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8600669017907647</v>
+        <v>0.3565727573174721</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9025072260680727</v>
+        <v>-5.070181259828843</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8713662840363012</v>
+        <v>-9.755353509916308</v>
       </c>
       <c r="E10" t="n">
-        <v>0.890747405117714</v>
+        <v>-5.360221868725271</v>
       </c>
       <c r="F10" t="n">
-        <v>0.154864713549614</v>
+        <v>0.7120843529701233</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1615335047245026</v>
+        <v>3.114512205123901</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1593625098466873</v>
+        <v>1.103969812393188</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1605119556188583</v>
+        <v>2.168377637863159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_9</t>
+          <t>model_9_5_17</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8638923162813575</v>
+        <v>0.3576287629765769</v>
       </c>
       <c r="C11" t="n">
-        <v>0.903785987397776</v>
+        <v>-5.117684468002213</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8700923936828729</v>
+        <v>-10.04572106440245</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8910056298584542</v>
+        <v>-5.439178859876026</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1506310999393463</v>
+        <v>0.7109156847000122</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1594147384166718</v>
+        <v>3.138885021209717</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1609407067298889</v>
+        <v>1.133774161338806</v>
       </c>
       <c r="I11" t="n">
-        <v>0.160132572054863</v>
+        <v>2.195296287536621</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_10</t>
+          <t>model_9_5_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8673623274100681</v>
+        <v>0.3706478218524608</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9041913376004087</v>
+        <v>-4.813706632634155</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8687489391749449</v>
+        <v>-10.94896420787118</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8907142393629407</v>
+        <v>-5.324978699970479</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1467908173799515</v>
+        <v>0.6965073943138123</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1587431281805038</v>
+        <v>2.982919216156006</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1626051068305969</v>
+        <v>1.226486444473267</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1605606824159622</v>
+        <v>2.156362295150757</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_11</t>
+          <t>model_9_5_5</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8699469959808579</v>
+        <v>0.3717491137182918</v>
       </c>
       <c r="C13" t="n">
-        <v>0.901795959429819</v>
+        <v>-4.553161919854612</v>
       </c>
       <c r="D13" t="n">
-        <v>0.866870154412294</v>
+        <v>-1.91256515745325</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8885381623043537</v>
+        <v>-3.837049789471565</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1439303457736969</v>
+        <v>0.6952886581420898</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1627119779586792</v>
+        <v>2.84923791885376</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1649326980113983</v>
+        <v>0.2989566028118134</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1637577265501022</v>
+        <v>1.649085640907288</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_12</t>
+          <t>model_9_5_11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8737051900549918</v>
+        <v>0.389813627366299</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9046176814306308</v>
+        <v>-4.32754851263172</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8653291051732191</v>
+        <v>-6.84000188277392</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8896116033970932</v>
+        <v>-4.355477413424786</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1397711336612701</v>
+        <v>0.6752964854240417</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1580367386341095</v>
+        <v>2.733479261398315</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1668418794870377</v>
+        <v>0.8047271370887756</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1621806621551514</v>
+        <v>1.82583212852478</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_13</t>
+          <t>model_9_5_0</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8767005311022296</v>
+        <v>0.3968778242583154</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9047610919774723</v>
+        <v>-0.6225017527105254</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8636950862616499</v>
+        <v>-1.261731556597711</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8890494741438209</v>
+        <v>-0.6131640431702201</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1364561766386032</v>
+        <v>0.6674785614013672</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1577991247177124</v>
+        <v>0.8324795365333557</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1688662469387054</v>
+        <v>0.232152596116066</v>
       </c>
       <c r="I15" t="n">
-        <v>0.163006529211998</v>
+        <v>0.5499728322029114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_14</t>
+          <t>model_9_5_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8792964124077179</v>
+        <v>0.4223385700136764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9037718203084686</v>
+        <v>-3.500368601605478</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8619516769039656</v>
+        <v>-15.88876106196417</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8877658632252459</v>
+        <v>-4.978417539650307</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1335833072662354</v>
+        <v>0.6393010020256042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1594382077455521</v>
+        <v>2.309066772460938</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1710261404514313</v>
+        <v>1.733525633811951</v>
       </c>
       <c r="I16" t="n">
-        <v>0.164892390370369</v>
+        <v>2.038209915161133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_15</t>
+          <t>model_9_5_20</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8824289518747815</v>
+        <v>0.4227128489070267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9056925905221358</v>
+        <v>-3.790087669440772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8601324379998493</v>
+        <v>-13.73431563020255</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8881915014381701</v>
+        <v>-4.904057449220161</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1301165074110031</v>
+        <v>0.6388868093490601</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1562557369470596</v>
+        <v>2.457716941833496</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1732799559831619</v>
+        <v>1.512385249137878</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1642670333385468</v>
+        <v>2.012858629226685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_16</t>
+          <t>model_9_5_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8839804945434142</v>
+        <v>0.4262362580433696</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9012335107616782</v>
+        <v>-3.69098870859717</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8585617466698441</v>
+        <v>-14.11882941729964</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8849051825189281</v>
+        <v>-4.879579479592212</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1283994019031525</v>
+        <v>0.6349874138832092</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1636438816785812</v>
+        <v>2.40687084197998</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1752258837223053</v>
+        <v>1.55185329914093</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1690952479839325</v>
+        <v>2.004513502120972</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_17</t>
+          <t>model_9_5_24</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8864658143628266</v>
+        <v>0.431124695437325</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9013024442260065</v>
+        <v>-3.362177854251655</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8568074023915575</v>
+        <v>-16.09628300694336</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8842504863874192</v>
+        <v>-4.897778577303325</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1256488859653473</v>
+        <v>0.6295773386955261</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1635296791791916</v>
+        <v>2.238163232803345</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1773993074893951</v>
+        <v>1.754826545715332</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1700571030378342</v>
+        <v>2.010717868804932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_18</t>
+          <t>model_9_5_21</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8883860300492621</v>
+        <v>0.4325968601734759</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8994178266400989</v>
+        <v>-3.617715358523141</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8551116577606754</v>
+        <v>-13.98457654656328</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8824526692990904</v>
+        <v>-4.802175360170367</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1235237792134285</v>
+        <v>0.6279481053352356</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1666522622108459</v>
+        <v>2.369275093078613</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1795001327991486</v>
+        <v>1.538073062896729</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1726984232664108</v>
+        <v>1.978124022483826</v>
       </c>
     </row>
     <row r="21">
@@ -1071,183 +1071,183 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8908187792960913</v>
+        <v>0.4447623881439848</v>
       </c>
       <c r="C21" t="n">
-        <v>0.899983060724723</v>
+        <v>-3.49209712332241</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8537225071015366</v>
+        <v>-13.68463209210689</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8822388112745605</v>
+        <v>-4.659624416014665</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1208314374089241</v>
+        <v>0.614484429359436</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1657157242298126</v>
+        <v>2.304822444915771</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1812211275100708</v>
+        <v>1.507285594940186</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1730126291513443</v>
+        <v>1.929524421691895</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_20</t>
+          <t>model_9_5_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.893279017935244</v>
+        <v>0.4598210250125033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9011389295127603</v>
+        <v>-2.85583492022936</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8522307259124201</v>
+        <v>-0.3830908170073397</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8823371883763165</v>
+        <v>-2.268053087340929</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1181086823344231</v>
+        <v>0.597818911075592</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1638005971908569</v>
+        <v>1.97836709022522</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1830692887306213</v>
+        <v>0.1419656276702881</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1728681027889252</v>
+        <v>1.114170789718628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_21</t>
+          <t>model_9_5_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.895474010718964</v>
+        <v>0.4614095945609068</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9015430692977843</v>
+        <v>-2.719962273880316</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8506654685725803</v>
+        <v>-0.3238103325096147</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8819573051570617</v>
+        <v>-2.151423421128089</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1156794652342796</v>
+        <v>0.5960608720779419</v>
       </c>
       <c r="G23" t="n">
-        <v>0.163130983710289</v>
+        <v>1.908652782440186</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1850084662437439</v>
+        <v>0.1358808577060699</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1734262108802795</v>
+        <v>1.074408531188965</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_22</t>
+          <t>model_9_5_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8974812519442706</v>
+        <v>0.4655399049212122</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9014170769448934</v>
+        <v>-2.064881548635002</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8493550117347115</v>
+        <v>-1.432811041774489</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8813614752902605</v>
+        <v>-1.786604712643932</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1134580373764038</v>
+        <v>0.591489851474762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1633397340774536</v>
+        <v>1.572541356086731</v>
       </c>
       <c r="H24" t="n">
-        <v>0.186631977558136</v>
+        <v>0.2497128248214722</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1743015944957733</v>
+        <v>0.9500316381454468</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_23</t>
+          <t>model_9_5_13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8999084616864197</v>
+        <v>0.4918136726226068</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9036992175171633</v>
+        <v>-3.385665226084732</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8473399687460166</v>
+        <v>-7.870522196908686</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8819248912251686</v>
+        <v>-3.751037992369</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1107718423008919</v>
+        <v>0.5624125599861145</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1595585197210312</v>
+        <v>2.250214338302612</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1891283690929413</v>
+        <v>0.9105035662651062</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1734738349914551</v>
+        <v>1.619761824607849</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_5_24</t>
+          <t>model_9_5_12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9013960172669854</v>
+        <v>0.6030959611022597</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9020797888804941</v>
+        <v>-1.806600811247218</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8459412197928244</v>
+        <v>-7.207862508893085</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8804033430693959</v>
+        <v>-2.399060288980623</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1091255471110344</v>
+        <v>0.4392557740211487</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1622417122125626</v>
+        <v>1.440021634101868</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1908612549304962</v>
+        <v>0.842485785484314</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1757092773914337</v>
+        <v>1.15883481502533</v>
       </c>
     </row>
   </sheetData>
